--- a/parts.xlsx
+++ b/parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexander\workspace\rocci-kicad-library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nutzer\OneDrive\Projekte\Rocci\rocci-kicad-library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{F2C4F586-FB63-41C4-9EEE-2845CA7ADBDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7780553F-EA7C-4474-89CF-0A84F240848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4D1DC515-7398-40D6-845A-A56E6F40CBDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D1DC515-7398-40D6-845A-A56E6F40CBDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>NMOS_IRF530N</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Optokoppler</t>
+  </si>
+  <si>
+    <t>L298P</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,16 +538,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFC5D0E-99B1-441D-BA55-F818937F7054}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -553,312 +556,314 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
